--- a/results/WBC.xlsx
+++ b/results/WBC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6401,6 +6401,2388 @@
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>35</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>0.7674315571784973</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.009377209888807</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-11.70566426660526</v>
+      </c>
+      <c r="J125" t="n">
+        <v>13</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1.009377209888807</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>170</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>0.7548277378082275</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-6.293933910448497</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8.636686242509027</v>
+      </c>
+      <c r="H126" t="n">
+        <v>26</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-13.43124879280258</v>
+      </c>
+      <c r="J126" t="n">
+        <v>52</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>14.93062015295752</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>274</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>0.6090570092201233</v>
+      </c>
+      <c r="E127" t="n">
+        <v>46.74108100961404</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>69.95962432428703</v>
+      </c>
+      <c r="H127" t="n">
+        <v>40</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-8.708708578826528</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>23.21854331467299</v>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>314</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>1.03515100479126</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-14.56048821923386</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-22.15513119400572</v>
+      </c>
+      <c r="J128" t="n">
+        <v>34</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>30</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-17.52148563547593</v>
+      </c>
+      <c r="N128" t="n">
+        <v>14.56048821923386</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-2.960997416242066</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-17.52148563547593</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>366</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>0.8844279646873474</v>
+      </c>
+      <c r="E129" t="n">
+        <v>50.40424945305168</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>50.40424945305168</v>
+      </c>
+      <c r="H129" t="n">
+        <v>52</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-3.555551525225194</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>457</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>1.527216792106628</v>
+      </c>
+      <c r="E130" t="n">
+        <v>21.2826597429457</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>28.0205746654641</v>
+      </c>
+      <c r="H130" t="n">
+        <v>43</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-8.913658728729638</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>6.737914922518407</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>496</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>1.955151319503784</v>
+      </c>
+      <c r="E131" t="n">
+        <v>24.34951824273134</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>25.90093602840509</v>
+      </c>
+      <c r="H131" t="n">
+        <v>45</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-9.954219420473445</v>
+      </c>
+      <c r="J131" t="n">
+        <v>9</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1.551417785673749</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>570</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>2.601884126663208</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.6630292621899389</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>10.97068388825734</v>
+      </c>
+      <c r="H132" t="n">
+        <v>15</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-14.29308575231049</v>
+      </c>
+      <c r="J132" t="n">
+        <v>37</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>6</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-4.761903889209044</v>
+      </c>
+      <c r="N132" t="n">
+        <v>10.3076546260674</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-5.424933151398983</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-15.73258777746639</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>625</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>2.61988377571106</v>
+      </c>
+      <c r="E133" t="n">
+        <v>32.2210522206263</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>38.71563523972392</v>
+      </c>
+      <c r="H133" t="n">
+        <v>46</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-5.423404106583368</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>6.494583019097618</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>642</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>2.889101266860962</v>
+      </c>
+      <c r="E134" t="n">
+        <v>17.06792727275128</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>29.29613886883456</v>
+      </c>
+      <c r="H134" t="n">
+        <v>41</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-1.639342225136868</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>12.22821159608328</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>699</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>3.778968095779419</v>
+      </c>
+      <c r="E135" t="n">
+        <v>18.82105023545216</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>23.06464852379401</v>
+      </c>
+      <c r="H135" t="n">
+        <v>51</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-16.64328942717129</v>
+      </c>
+      <c r="J135" t="n">
+        <v>14</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>40</v>
+      </c>
+      <c r="M135" t="n">
+        <v>11.8737050982701</v>
+      </c>
+      <c r="N135" t="n">
+        <v>4.24359828834185</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-6.947345137182058</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-11.19094342552391</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>733</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>4.441629886627197</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-16.02291327979759</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.704217226634344</v>
+      </c>
+      <c r="H136" t="n">
+        <v>17</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-19.07523684588153</v>
+      </c>
+      <c r="J136" t="n">
+        <v>34</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>6</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-4.817111485164481</v>
+      </c>
+      <c r="N136" t="n">
+        <v>20.72713050643193</v>
+      </c>
+      <c r="O136" t="n">
+        <v>11.2058017946331</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-9.521328711798825</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>782</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>4.070327281951904</v>
+      </c>
+      <c r="E137" t="n">
+        <v>23.66339643595813</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>24.10218454983375</v>
+      </c>
+      <c r="H137" t="n">
+        <v>52</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-10.59235411370888</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>0.4387881138756278</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>800</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>4.623437404632568</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10.73637092049124</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>17.68960710539984</v>
+      </c>
+      <c r="H138" t="n">
+        <v>42</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-3.644844949837414</v>
+      </c>
+      <c r="J138" t="n">
+        <v>14</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>48</v>
+      </c>
+      <c r="M138" t="n">
+        <v>12.47469717310687</v>
+      </c>
+      <c r="N138" t="n">
+        <v>6.953236184908601</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.738326252615627</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-5.214909932292974</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>832</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>4.917413234710693</v>
+      </c>
+      <c r="E139" t="n">
+        <v>23.51230242181308</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>25.41737853281442</v>
+      </c>
+      <c r="H139" t="n">
+        <v>52</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-4.116227390307036</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>16</v>
+      </c>
+      <c r="M139" t="n">
+        <v>5.750665474722434</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1.905076111001339</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-17.76163694709065</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-19.66671305809199</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>840</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>5.084107398986816</v>
+      </c>
+      <c r="E140" t="n">
+        <v>19.83115781757256</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>23.63923757215172</v>
+      </c>
+      <c r="H140" t="n">
+        <v>49</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-3.522011374947154</v>
+      </c>
+      <c r="J140" t="n">
+        <v>24</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>8</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2.283386477731594</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3.808079754579161</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-17.54777133984097</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-21.35585109442013</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>881</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>5.958069801330566</v>
+      </c>
+      <c r="E141" t="n">
+        <v>23.1494125079692</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>23.97405046509934</v>
+      </c>
+      <c r="H141" t="n">
+        <v>50</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-3.4591529552484</v>
+      </c>
+      <c r="J141" t="n">
+        <v>18</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>15</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-0.3144543351736994</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.8246379571301325</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-23.4638668431429</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-24.28850480027304</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>916</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>6.401956558227539</v>
+      </c>
+      <c r="E142" t="n">
+        <v>20.57284753709926</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>29.70454894810787</v>
+      </c>
+      <c r="H142" t="n">
+        <v>37</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-3.201610013684884</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>9.13170141100861</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>931</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>7.245610237121582</v>
+      </c>
+      <c r="E143" t="n">
+        <v>13.50905085084408</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>17.09909292654674</v>
+      </c>
+      <c r="H143" t="n">
+        <v>50</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-3.390574182525542</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>3.590042075702661</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>940</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>7.648508071899414</v>
+      </c>
+      <c r="E144" t="n">
+        <v>14.27849130964651</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>14.86337635821452</v>
+      </c>
+      <c r="H144" t="n">
+        <v>52</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-6.452999882247473</v>
+      </c>
+      <c r="J144" t="n">
+        <v>24</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>49</v>
+      </c>
+      <c r="M144" t="n">
+        <v>9.104453567699521</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.5848850485680135</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-5.174037741946986</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-5.758922790514999</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>951</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>8.074336051940918</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16.56226174636555</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>17.6277246325221</v>
+      </c>
+      <c r="H145" t="n">
+        <v>52</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-11.38652380828091</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>38</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3.350453637872783</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.065462886156542</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-13.21180810849277</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-14.27727099464931</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>977</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>7.900327682495117</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.93216735589915</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>33.72703293649643</v>
+      </c>
+      <c r="H146" t="n">
+        <v>51</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-3.187419780353944</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>12</v>
+      </c>
+      <c r="M146" t="n">
+        <v>5.626795157080545</v>
+      </c>
+      <c r="N146" t="n">
+        <v>5.794865580597282</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-22.3053721988186</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-28.10023777941588</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>9.046868324279783</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-10.2165020842098</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>21.91765791759038</v>
+      </c>
+      <c r="H147" t="n">
+        <v>29</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-19.01567950524571</v>
+      </c>
+      <c r="J147" t="n">
+        <v>48</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>11</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-0.1147440701244722</v>
+      </c>
+      <c r="N147" t="n">
+        <v>32.13416000180018</v>
+      </c>
+      <c r="O147" t="n">
+        <v>10.10175801408533</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-22.03240198771486</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1116</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>7.919111728668213</v>
+      </c>
+      <c r="E148" t="n">
+        <v>23.07861090666967</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>44.64119356445926</v>
+      </c>
+      <c r="H148" t="n">
+        <v>43</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-6.713074404779927</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>22</v>
+      </c>
+      <c r="M148" t="n">
+        <v>23.1205074357307</v>
+      </c>
+      <c r="N148" t="n">
+        <v>21.56258265778959</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0.04189652906103092</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-21.52068612872856</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>10.27920818328857</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-7.108779480246427</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6.400672057092613</v>
+      </c>
+      <c r="H149" t="n">
+        <v>11</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-23.39871212555479</v>
+      </c>
+      <c r="J149" t="n">
+        <v>26</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>22</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-11.63372819542847</v>
+      </c>
+      <c r="N149" t="n">
+        <v>13.50945153733904</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-4.524948715182043</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-18.03440025252108</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>10.34329319000244</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-10.78363658173645</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.74143445666093</v>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-23.87331861282613</v>
+      </c>
+      <c r="J150" t="n">
+        <v>25</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>21</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-12.1812282051303</v>
+      </c>
+      <c r="N150" t="n">
+        <v>16.52507103839737</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-1.397591623393856</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-17.92266266179123</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>10.02476024627686</v>
+      </c>
+      <c r="E151" t="n">
+        <v>50.66305495302721</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>56.68760767240515</v>
+      </c>
+      <c r="H151" t="n">
+        <v>49</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-7.583338176671751</v>
+      </c>
+      <c r="J151" t="n">
+        <v>7</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>6.024552719377944</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>10.34533309936523</v>
+      </c>
+      <c r="E152" t="n">
+        <v>54.58510372729462</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>56.24628872634045</v>
+      </c>
+      <c r="H152" t="n">
+        <v>52</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-10.44707128889276</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1.66118499904583</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>11.21730422973633</v>
+      </c>
+      <c r="E153" t="n">
+        <v>38.73132194022274</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>52.28614624810055</v>
+      </c>
+      <c r="H153" t="n">
+        <v>38</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.9953364598201657</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>13.55482430787781</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>16.00191688537598</v>
+      </c>
+      <c r="E154" t="n">
+        <v>16.07177828107208</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>18.10870396341148</v>
+      </c>
+      <c r="H154" t="n">
+        <v>52</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-2.388719391279004</v>
+      </c>
+      <c r="J154" t="n">
+        <v>22</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>22</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.678420685197279</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2.036925682339398</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-14.3933575958748</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-16.4302832782142</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>18.15527153015137</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.03484748950764</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>21.13167210122229</v>
+      </c>
+      <c r="H155" t="n">
+        <v>49</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-7.584322016005765</v>
+      </c>
+      <c r="J155" t="n">
+        <v>22</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>14</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-2.786946093177026</v>
+      </c>
+      <c r="N155" t="n">
+        <v>10.09682461171465</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-13.82179358268466</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-23.91861819439931</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>18.83598709106445</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-6.900807474511117</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>16.75408287693153</v>
+      </c>
+      <c r="H156" t="n">
+        <v>11</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-12.82961276478082</v>
+      </c>
+      <c r="J156" t="n">
+        <v>36</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>19</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-6.56894519173849</v>
+      </c>
+      <c r="N156" t="n">
+        <v>23.65489035144265</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0.3318622827726267</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-23.32302806867002</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1416</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>21.80517578125</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-12.18876484929574</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.8557977225754765</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-25.59689768863242</v>
+      </c>
+      <c r="J157" t="n">
+        <v>47</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>11</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-19.29135724802383</v>
+      </c>
+      <c r="N157" t="n">
+        <v>13.04456257187122</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-7.102592398728087</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-20.14715497059931</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>19.66299438476562</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.185679564562164</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4.451766411389512</v>
+      </c>
+      <c r="H158" t="n">
+        <v>52</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-17.49106505229589</v>
+      </c>
+      <c r="J158" t="n">
+        <v>6</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>37</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-9.100547556559892</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1.266086846827348</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-12.28622712112206</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-13.5523139679494</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>19.2749252319336</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10.56127031198108</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>14.27188615944926</v>
+      </c>
+      <c r="H159" t="n">
+        <v>20</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-9.370102743390193</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>3.710615847468173</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>19.62345504760743</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.941501555838618</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12.24231698708736</v>
+      </c>
+      <c r="H160" t="n">
+        <v>18</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-3.947971604466666</v>
+      </c>
+      <c r="J160" t="n">
+        <v>28</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>6.300815431248742</v>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>20.09023475646973</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.677057465397805</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9.634461146657689</v>
+      </c>
+      <c r="H161" t="n">
+        <v>16</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-6.179659705356682</v>
+      </c>
+      <c r="J161" t="n">
+        <v>26</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>52</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3.677057465397805</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5.957403681259883</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-5.957403681259883</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>21.21673202514648</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-5.186081438171799</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3.813445879642017</v>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-11.16102804063922</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>41</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-1.827650890290047</v>
+      </c>
+      <c r="N162" t="n">
+        <v>8.999527317813815</v>
+      </c>
+      <c r="O162" t="n">
+        <v>3.358430547881752</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-5.641096769932064</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>21.1567325592041</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-14.86692340515033</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2.060609980453748</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-15.89689392017682</v>
+      </c>
+      <c r="J163" t="n">
+        <v>52</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>8</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-1.549238876506321</v>
+      </c>
+      <c r="N163" t="n">
+        <v>16.92753338560408</v>
+      </c>
+      <c r="O163" t="n">
+        <v>13.31768452864401</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-3.609848856960069</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>20.36068344116211</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.01072613397718865</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.4544455067807</v>
+      </c>
+      <c r="H164" t="n">
+        <v>44</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-19.34033819881111</v>
+      </c>
+      <c r="J164" t="n">
+        <v>23</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>17</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-15.48494959466455</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3.443719372803512</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-15.49567572864174</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-18.93939510144525</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>19.5523624420166</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-41.03700794522015</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>12.25132645420975</v>
+      </c>
+      <c r="H165" t="n">
+        <v>22</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-48.19103146104287</v>
+      </c>
+      <c r="J165" t="n">
+        <v>48</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>44</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-9.074712110512571</v>
+      </c>
+      <c r="N165" t="n">
+        <v>53.28833439942989</v>
+      </c>
+      <c r="O165" t="n">
+        <v>31.96229583470758</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-21.32603856472232</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>21.68485069274902</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-41.70278281310924</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.212530836734095</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-53.28592550745817</v>
+      </c>
+      <c r="J166" t="n">
+        <v>28</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>24</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-18.01630506248204</v>
+      </c>
+      <c r="N166" t="n">
+        <v>42.91531364984333</v>
+      </c>
+      <c r="O166" t="n">
+        <v>23.6864777506272</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-19.22883589921614</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>15.22563934326172</v>
+      </c>
+      <c r="E167" t="n">
+        <v>16.78099420992104</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>39.34927015668868</v>
+      </c>
+      <c r="H167" t="n">
+        <v>30</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-6.780514273309755</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>22.56827594676764</v>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>16.32684135437012</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.510383392833173</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>29.95053262917794</v>
+      </c>
+      <c r="H168" t="n">
+        <v>22</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-5.386414978841835</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>24.44014923634476</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>20.08243560791016</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-1.607705589715261</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2.999612214550627</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-22.89390290869024</v>
+      </c>
+      <c r="J169" t="n">
+        <v>33</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>13</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-17.50019470072126</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4.607317804265887</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-15.892489111006</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-20.49980691527189</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>19.44306945800781</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-2.968941415970995</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5.084325140206518</v>
+      </c>
+      <c r="H170" t="n">
+        <v>39</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-20.35834500525625</v>
+      </c>
+      <c r="J170" t="n">
+        <v>8</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>4</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-2.643526907812678</v>
+      </c>
+      <c r="N170" t="n">
+        <v>8.053266556177514</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0.3254145081583175</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-7.727852048019196</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>20.31312561035156</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.325102291771398</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.681395396445172</v>
+      </c>
+      <c r="H171" t="n">
+        <v>52</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-13.75971903363875</v>
+      </c>
+      <c r="J171" t="n">
+        <v>20</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>16</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-12.12499276990416</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.3562931046737736</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-15.45009506167555</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-15.80638816634933</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1871</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>19.83056831359864</v>
+      </c>
+      <c r="E172" t="n">
+        <v>58.16223232841155</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>64.14884538108609</v>
+      </c>
+      <c r="H172" t="n">
+        <v>52</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-2.828470972059548</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>5.986613052674542</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1878</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>21.44089698791504</v>
+      </c>
+      <c r="E173" t="n">
+        <v>47.44437095489318</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>51.8203689781594</v>
+      </c>
+      <c r="H173" t="n">
+        <v>45</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-1.814347220816075</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>4.37599802326622</v>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>26.08221435546875</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.14624319321556</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>31.05727907062975</v>
+      </c>
+      <c r="H174" t="n">
+        <v>50</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-2.831537702437892</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>3.911035877414186</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>31.65169143676757</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22.61588437011024</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>28.14481480182533</v>
+      </c>
+      <c r="H175" t="n">
+        <v>52</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-13.97459076311939</v>
+      </c>
+      <c r="J175" t="n">
+        <v>21</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>36</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2.356272238406211</v>
+      </c>
+      <c r="N175" t="n">
+        <v>5.528930431715086</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-20.25961213170403</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-25.78854256341912</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6413,7 +8795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6626,40 +9008,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>70.58823529411765</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.98763811209847</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.50905085084408</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.9735712341719</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.31211997894336</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11.8503960949253</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.32448186684489</v>
+      </c>
+      <c r="J4" t="n">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-4.645073463699409</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>76</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>14.55934174626731</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>13.67757629535754</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>22.48445272213297</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>25.41618373149236</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-10.50321251239514</v>
       </c>
     </row>
